--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1275.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1275.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.896629567686293</v>
+        <v>1.139386177062988</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.116159439086914</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>10.13556289672852</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.524795532226562</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.286947965621948</v>
       </c>
     </row>
   </sheetData>
